--- a/examples/Abatement/Data/IOdata_main_catalog_lowcost.xlsx
+++ b/examples/Abatement/Data/IOdata_main_catalog_lowcost.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
